--- a/Testfall- Automatisering.xlsx
+++ b/Testfall- Automatisering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B136ED-92CF-A447-A41A-6BDD5CC3B6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503004F-A723-DC49-AE3B-7AB4BFC0EFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="15960" xr2:uid="{8D58CB7F-2A5B-6542-B51C-920E0BAD058B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8D58CB7F-2A5B-6542-B51C-920E0BAD058B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Testet utförd av melissia godkänd enligt krav</t>
   </si>
   <si>
-    <t>Testfall- huvudsida</t>
-  </si>
-  <si>
-    <t>Testfall- Dashboard</t>
-  </si>
-  <si>
     <t>Kontrollera att det är rätt sida</t>
   </si>
   <si>
@@ -123,18 +117,12 @@
     <t xml:space="preserve">Klicka på view för att komma till en bokning </t>
   </si>
   <si>
-    <t>Testfall- Book a room</t>
-  </si>
-  <si>
     <t>Det ska finnas information om lediga rum</t>
   </si>
   <si>
     <t xml:space="preserve">Fält för att boka rum </t>
   </si>
   <si>
-    <t xml:space="preserve">Testfall- Client </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vidare till nästa sida för create cliente </t>
   </si>
   <si>
@@ -151,6 +139,33 @@
   </si>
   <si>
     <t>Skapas en ny client</t>
+  </si>
+  <si>
+    <t>Testfall 2 - Dashboard</t>
+  </si>
+  <si>
+    <t>Testfall 3 - Book a room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testfall 4 - Client </t>
+  </si>
+  <si>
+    <t>Testfall 5 - create a client</t>
+  </si>
+  <si>
+    <t>Testfall 1 - Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapa en kund  </t>
+  </si>
+  <si>
+    <t>Kicka på crete a client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidare till client sida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skriv in information </t>
   </si>
 </sst>
 </file>
@@ -263,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -274,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -286,13 +298,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A9D36-DCE1-964D-938C-2D02253484B3}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="A38:F39"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,52 +643,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -682,7 +700,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -702,7 +720,7 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -722,7 +740,7 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -742,7 +760,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -762,7 +780,7 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -774,64 +792,64 @@
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -846,12 +864,12 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -871,7 +889,7 @@
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -891,7 +909,7 @@
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -906,12 +924,12 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -925,68 +943,68 @@
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="8">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="B26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -998,64 +1016,64 @@
     </row>
     <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="8">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1070,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1083,31 +1101,133 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
+  <mergeCells count="30">
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
@@ -1115,18 +1235,11 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
